--- a/results/SHL.xlsx
+++ b/results/SHL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P133"/>
+  <dimension ref="A1:P173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6898,6 +6898,1926 @@
       </c>
       <c r="P133" t="n">
         <v>-9.327503050542244</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>40</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="n">
+        <v>0.0956355184316635</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-50.00000000000006</v>
+      </c>
+      <c r="F134" t="b">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2.769991069153526e-05</v>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-60.00000248352676</v>
+      </c>
+      <c r="J134" t="n">
+        <v>43</v>
+      </c>
+      <c r="K134" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
+        <v>50.00002769991075</v>
+      </c>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>240</v>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="n">
+        <v>0.0350663512945175</v>
+      </c>
+      <c r="E135" t="n">
+        <v>572.7273152214607</v>
+      </c>
+      <c r="F135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>572.7273152214607</v>
+      </c>
+      <c r="H135" t="n">
+        <v>47</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>396</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="n">
+        <v>0.2314143031835556</v>
+      </c>
+      <c r="E136" t="n">
+        <v>67.26068227774833</v>
+      </c>
+      <c r="F136" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>79.42500003302629</v>
+      </c>
+      <c r="H136" t="n">
+        <v>48</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-21.42856838751811</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>12.16431775527796</v>
+      </c>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>526</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="n">
+        <v>0.8392637372016907</v>
+      </c>
+      <c r="E137" t="n">
+        <v>94.83538556738254</v>
+      </c>
+      <c r="F137" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>97.15486339659087</v>
+      </c>
+      <c r="H137" t="n">
+        <v>52</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-20.00000211927626</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>2.319477829208324</v>
+      </c>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>616</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="n">
+        <v>2.727955341339112</v>
+      </c>
+      <c r="E138" t="n">
+        <v>18.75305566203576</v>
+      </c>
+      <c r="F138" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>24.76589901145867</v>
+      </c>
+      <c r="H138" t="n">
+        <v>47</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-23.7456747851958</v>
+      </c>
+      <c r="J138" t="n">
+        <v>22</v>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>16</v>
+      </c>
+      <c r="M138" t="n">
+        <v>-9.558827513744705</v>
+      </c>
+      <c r="N138" t="n">
+        <v>6.012843349422905</v>
+      </c>
+      <c r="O138" t="n">
+        <v>-28.31188317578047</v>
+      </c>
+      <c r="P138" t="n">
+        <v>-34.32472652520337</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>651</v>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="n">
+        <v>2.838484525680542</v>
+      </c>
+      <c r="E139" t="n">
+        <v>18.33298937370537</v>
+      </c>
+      <c r="F139" t="b">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>32.90957737680981</v>
+      </c>
+      <c r="H139" t="n">
+        <v>25</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-11.94435566818832</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2</v>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>29</v>
+      </c>
+      <c r="M139" t="n">
+        <v>19.3296911410531</v>
+      </c>
+      <c r="N139" t="n">
+        <v>14.57658800310443</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0.9967017673477265</v>
+      </c>
+      <c r="P139" t="n">
+        <v>-13.57988623575671</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>669</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="n">
+        <v>3.333846807479858</v>
+      </c>
+      <c r="E140" t="n">
+        <v>4.28668269498605</v>
+      </c>
+      <c r="F140" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>13.16110201956078</v>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-11.11716847210107</v>
+      </c>
+      <c r="J140" t="n">
+        <v>17</v>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>11</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1.598993990417192</v>
+      </c>
+      <c r="N140" t="n">
+        <v>8.874419324574733</v>
+      </c>
+      <c r="O140" t="n">
+        <v>-2.687688704568858</v>
+      </c>
+      <c r="P140" t="n">
+        <v>-11.56210802914359</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>711</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="n">
+        <v>3.536079406738281</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-22.85024898539529</v>
+      </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>5.90388300552217</v>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-47.88867451723679</v>
+      </c>
+      <c r="J141" t="n">
+        <v>44</v>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>18</v>
+      </c>
+      <c r="M141" t="n">
+        <v>-8.78520370845836</v>
+      </c>
+      <c r="N141" t="n">
+        <v>28.75413199091746</v>
+      </c>
+      <c r="O141" t="n">
+        <v>14.06504527693693</v>
+      </c>
+      <c r="P141" t="n">
+        <v>-14.68908671398053</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>769</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>2.741066694259644</v>
+      </c>
+      <c r="E142" t="n">
+        <v>12.48721934419177</v>
+      </c>
+      <c r="F142" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>15.27887425467924</v>
+      </c>
+      <c r="H142" t="n">
+        <v>52</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-15.95572672158294</v>
+      </c>
+      <c r="J142" t="n">
+        <v>18</v>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>44</v>
+      </c>
+      <c r="M142" t="n">
+        <v>5.98048146508086</v>
+      </c>
+      <c r="N142" t="n">
+        <v>2.791654910487471</v>
+      </c>
+      <c r="O142" t="n">
+        <v>-6.506737879110908</v>
+      </c>
+      <c r="P142" t="n">
+        <v>-9.298392789598379</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>802</v>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="n">
+        <v>3.049807071685791</v>
+      </c>
+      <c r="E143" t="n">
+        <v>36.37171823426506</v>
+      </c>
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>38.31563661815407</v>
+      </c>
+      <c r="H143" t="n">
+        <v>49</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-7.482045717822097</v>
+      </c>
+      <c r="J143" t="n">
+        <v>2</v>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>11</v>
+      </c>
+      <c r="M143" t="n">
+        <v>-4.748214835451849</v>
+      </c>
+      <c r="N143" t="n">
+        <v>1.943918383889013</v>
+      </c>
+      <c r="O143" t="n">
+        <v>-41.11993306971691</v>
+      </c>
+      <c r="P143" t="n">
+        <v>-43.06385145360592</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>828</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>3.15086841583252</v>
+      </c>
+      <c r="E144" t="n">
+        <v>64.54247599446113</v>
+      </c>
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>69.27329285707145</v>
+      </c>
+      <c r="H144" t="n">
+        <v>51</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-2.142874061191403</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2</v>
+      </c>
+      <c r="K144" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>4.730816862610325</v>
+      </c>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>837</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>3.411940336227417</v>
+      </c>
+      <c r="E145" t="n">
+        <v>57.9592494155603</v>
+      </c>
+      <c r="F145" t="b">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>67.92559515046889</v>
+      </c>
+      <c r="H145" t="n">
+        <v>45</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-2.902375195380255</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
+        <v>9.966345734908593</v>
+      </c>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>915</v>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>6.24350643157959</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-5.894460354698966</v>
+      </c>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>23.44146285918761</v>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-7.595644857017011</v>
+      </c>
+      <c r="J146" t="n">
+        <v>49</v>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>18</v>
+      </c>
+      <c r="M146" t="n">
+        <v>12.49095167388114</v>
+      </c>
+      <c r="N146" t="n">
+        <v>29.33592321388658</v>
+      </c>
+      <c r="O146" t="n">
+        <v>18.38541202858011</v>
+      </c>
+      <c r="P146" t="n">
+        <v>-10.95051118530647</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>946</v>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="n">
+        <v>7.463847160339355</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-10.57356941770628</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>4.14369850791863</v>
+      </c>
+      <c r="H147" t="n">
+        <v>44</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-28.07245729647921</v>
+      </c>
+      <c r="J147" t="n">
+        <v>23</v>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>18</v>
+      </c>
+      <c r="M147" t="n">
+        <v>-17.85255080521582</v>
+      </c>
+      <c r="N147" t="n">
+        <v>14.71726792562491</v>
+      </c>
+      <c r="O147" t="n">
+        <v>-7.278981387509546</v>
+      </c>
+      <c r="P147" t="n">
+        <v>-21.99624931313446</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>983</v>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>6.525282382965088</v>
+      </c>
+      <c r="E148" t="n">
+        <v>30.62839156304402</v>
+      </c>
+      <c r="F148" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>41.16919180431724</v>
+      </c>
+      <c r="H148" t="n">
+        <v>48</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-1.587302419364675</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>12</v>
+      </c>
+      <c r="M148" t="n">
+        <v>7.180659532614579</v>
+      </c>
+      <c r="N148" t="n">
+        <v>10.54080024127321</v>
+      </c>
+      <c r="O148" t="n">
+        <v>-23.44773203042944</v>
+      </c>
+      <c r="P148" t="n">
+        <v>-33.98853227170266</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="n">
+        <v>7.71381950378418</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-1.259710360082912</v>
+      </c>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>19.41799258411888</v>
+      </c>
+      <c r="H149" t="n">
+        <v>19</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-14.52331409694633</v>
+      </c>
+      <c r="J149" t="n">
+        <v>39</v>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>24</v>
+      </c>
+      <c r="M149" t="n">
+        <v>9.972843012435145</v>
+      </c>
+      <c r="N149" t="n">
+        <v>20.67770294420179</v>
+      </c>
+      <c r="O149" t="n">
+        <v>11.23255337251806</v>
+      </c>
+      <c r="P149" t="n">
+        <v>-9.445149571683736</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1015</v>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="n">
+        <v>7.6688551902771</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-4.993143276758242</v>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>20.11816854568173</v>
+      </c>
+      <c r="H150" t="n">
+        <v>16</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-14.02214405172708</v>
+      </c>
+      <c r="J150" t="n">
+        <v>36</v>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>21</v>
+      </c>
+      <c r="M150" t="n">
+        <v>10.6176398260124</v>
+      </c>
+      <c r="N150" t="n">
+        <v>25.11131182243997</v>
+      </c>
+      <c r="O150" t="n">
+        <v>15.61078310277064</v>
+      </c>
+      <c r="P150" t="n">
+        <v>-9.50052871966933</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1031</v>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="n">
+        <v>8.55953311920166</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-15.3282372853294</v>
+      </c>
+      <c r="F151" t="b">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>7.619052052227743</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-24.96265255924412</v>
+      </c>
+      <c r="J151" t="n">
+        <v>47</v>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>5</v>
+      </c>
+      <c r="M151" t="n">
+        <v>-0.8928817142027567</v>
+      </c>
+      <c r="N151" t="n">
+        <v>22.94728933755715</v>
+      </c>
+      <c r="O151" t="n">
+        <v>14.43535557112665</v>
+      </c>
+      <c r="P151" t="n">
+        <v>-8.5119337664305</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1124</v>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>6.861903190612793</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-15.78634697696125</v>
+      </c>
+      <c r="F152" t="b">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>25.96745931503126</v>
+      </c>
+      <c r="H152" t="n">
+        <v>21</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-21.85432526139032</v>
+      </c>
+      <c r="J152" t="n">
+        <v>40</v>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>28</v>
+      </c>
+      <c r="M152" t="n">
+        <v>9.134235792699799</v>
+      </c>
+      <c r="N152" t="n">
+        <v>41.75380629199251</v>
+      </c>
+      <c r="O152" t="n">
+        <v>24.92058276966105</v>
+      </c>
+      <c r="P152" t="n">
+        <v>-16.83322352233146</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1140</v>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="n">
+        <v>7.914240837097168</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-13.04939591017033</v>
+      </c>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>9.217867990006894</v>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-32.24516844269598</v>
+      </c>
+      <c r="J153" t="n">
+        <v>24</v>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>12</v>
+      </c>
+      <c r="M153" t="n">
+        <v>-5.377082122548843</v>
+      </c>
+      <c r="N153" t="n">
+        <v>22.26726390017722</v>
+      </c>
+      <c r="O153" t="n">
+        <v>7.672313787621483</v>
+      </c>
+      <c r="P153" t="n">
+        <v>-14.59495011255574</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1190</v>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="n">
+        <v>6.52173900604248</v>
+      </c>
+      <c r="E154" t="n">
+        <v>7.401361606623872</v>
+      </c>
+      <c r="F154" t="b">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>19.37371229268551</v>
+      </c>
+      <c r="H154" t="n">
+        <v>32</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-6.154427530715427</v>
+      </c>
+      <c r="J154" t="n">
+        <v>17</v>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>17</v>
+      </c>
+      <c r="M154" t="n">
+        <v>-3.974087155165745</v>
+      </c>
+      <c r="N154" t="n">
+        <v>11.97235068606164</v>
+      </c>
+      <c r="O154" t="n">
+        <v>-11.37544876178962</v>
+      </c>
+      <c r="P154" t="n">
+        <v>-23.34779944785126</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1222</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>7.388277530670166</v>
+      </c>
+      <c r="E155" t="n">
+        <v>7.106252534393041</v>
+      </c>
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>8.455630285142776</v>
+      </c>
+      <c r="H155" t="n">
+        <v>46</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-14.51485705499854</v>
+      </c>
+      <c r="J155" t="n">
+        <v>6</v>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>16</v>
+      </c>
+      <c r="M155" t="n">
+        <v>-10.31985806947194</v>
+      </c>
+      <c r="N155" t="n">
+        <v>1.349377750749735</v>
+      </c>
+      <c r="O155" t="n">
+        <v>-17.42611060386498</v>
+      </c>
+      <c r="P155" t="n">
+        <v>-18.77548835461472</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1245</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>7.047183990478516</v>
+      </c>
+      <c r="E156" t="n">
+        <v>19.83900687298803</v>
+      </c>
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>26.9204025908205</v>
+      </c>
+      <c r="H156" t="n">
+        <v>44</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-5.372604635218615</v>
+      </c>
+      <c r="J156" t="n">
+        <v>10</v>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>35</v>
+      </c>
+      <c r="M156" t="n">
+        <v>9.637820271660846</v>
+      </c>
+      <c r="N156" t="n">
+        <v>7.081395717832475</v>
+      </c>
+      <c r="O156" t="n">
+        <v>-10.20118660132718</v>
+      </c>
+      <c r="P156" t="n">
+        <v>-17.28258231915965</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1268</v>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="n">
+        <v>7.869691371917725</v>
+      </c>
+      <c r="E157" t="n">
+        <v>18.96567237675806</v>
+      </c>
+      <c r="F157" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>23.77069205306947</v>
+      </c>
+      <c r="H157" t="n">
+        <v>52</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-4.75062130111805</v>
+      </c>
+      <c r="J157" t="n">
+        <v>3</v>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>12</v>
+      </c>
+      <c r="M157" t="n">
+        <v>-1.821068291636318</v>
+      </c>
+      <c r="N157" t="n">
+        <v>4.80501967631141</v>
+      </c>
+      <c r="O157" t="n">
+        <v>-20.78674066839438</v>
+      </c>
+      <c r="P157" t="n">
+        <v>-25.59176034470579</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1283</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="n">
+        <v>8.355703353881836</v>
+      </c>
+      <c r="E158" t="n">
+        <v>20.55095022707066</v>
+      </c>
+      <c r="F158" t="b">
+        <v>1</v>
+      </c>
+      <c r="G158" t="n">
+        <v>27.22221015392284</v>
+      </c>
+      <c r="H158" t="n">
+        <v>51</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-4.287909184426658</v>
+      </c>
+      <c r="J158" t="n">
+        <v>25</v>
+      </c>
+      <c r="K158" t="b">
+        <v>0</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
+        <v>6.671259926852187</v>
+      </c>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1306</v>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="n">
+        <v>9.142650604248049</v>
+      </c>
+      <c r="E159" t="n">
+        <v>19.38831497260179</v>
+      </c>
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>26.10621033176407</v>
+      </c>
+      <c r="H159" t="n">
+        <v>49</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-12.52626039727075</v>
+      </c>
+      <c r="J159" t="n">
+        <v>2</v>
+      </c>
+      <c r="K159" t="b">
+        <v>0</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
+        <v>6.717895359162288</v>
+      </c>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1362</v>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>11.99267768859863</v>
+      </c>
+      <c r="E160" t="n">
+        <v>14.22638338181222</v>
+      </c>
+      <c r="F160" t="b">
+        <v>1</v>
+      </c>
+      <c r="G160" t="n">
+        <v>16.19281314279344</v>
+      </c>
+      <c r="H160" t="n">
+        <v>52</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-5.144147195995032</v>
+      </c>
+      <c r="J160" t="n">
+        <v>15</v>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>14</v>
+      </c>
+      <c r="M160" t="n">
+        <v>-3.900492030605554</v>
+      </c>
+      <c r="N160" t="n">
+        <v>1.966429760981217</v>
+      </c>
+      <c r="O160" t="n">
+        <v>-18.12687541241777</v>
+      </c>
+      <c r="P160" t="n">
+        <v>-20.09330517339899</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1395</v>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="n">
+        <v>12.72774600982666</v>
+      </c>
+      <c r="E161" t="n">
+        <v>6.013520596307106</v>
+      </c>
+      <c r="F161" t="b">
+        <v>1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>31.2361033745181</v>
+      </c>
+      <c r="H161" t="n">
+        <v>38</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-7.356932946238147</v>
+      </c>
+      <c r="J161" t="n">
+        <v>5</v>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>42</v>
+      </c>
+      <c r="M161" t="n">
+        <v>11.99035606824482</v>
+      </c>
+      <c r="N161" t="n">
+        <v>25.22258277821099</v>
+      </c>
+      <c r="O161" t="n">
+        <v>5.976835471937716</v>
+      </c>
+      <c r="P161" t="n">
+        <v>-19.24574730627328</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1410</v>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="n">
+        <v>13.34506130218506</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-1.797758943540966</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>25.16538914637492</v>
+      </c>
+      <c r="H162" t="n">
+        <v>23</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-9.335210053294666</v>
+      </c>
+      <c r="J162" t="n">
+        <v>45</v>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>27</v>
+      </c>
+      <c r="M162" t="n">
+        <v>6.809910820962944</v>
+      </c>
+      <c r="N162" t="n">
+        <v>26.96314808991588</v>
+      </c>
+      <c r="O162" t="n">
+        <v>8.60766976450391</v>
+      </c>
+      <c r="P162" t="n">
+        <v>-18.35547832541197</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1473</v>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="n">
+        <v>14.33657741546631</v>
+      </c>
+      <c r="E163" t="n">
+        <v>13.21156248946068</v>
+      </c>
+      <c r="F163" t="b">
+        <v>1</v>
+      </c>
+      <c r="G163" t="n">
+        <v>23.07695825174498</v>
+      </c>
+      <c r="H163" t="n">
+        <v>18</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-3.973503885093461</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>8</v>
+      </c>
+      <c r="M163" t="n">
+        <v>6.520665115810951</v>
+      </c>
+      <c r="N163" t="n">
+        <v>9.865395762284301</v>
+      </c>
+      <c r="O163" t="n">
+        <v>-6.690897373649728</v>
+      </c>
+      <c r="P163" t="n">
+        <v>-16.55629313593403</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1527</v>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="n">
+        <v>17.00930786132812</v>
+      </c>
+      <c r="E164" t="n">
+        <v>9.653864371565266</v>
+      </c>
+      <c r="F164" t="b">
+        <v>1</v>
+      </c>
+      <c r="G164" t="n">
+        <v>13.41456672467023</v>
+      </c>
+      <c r="H164" t="n">
+        <v>40</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-7.35554143971174</v>
+      </c>
+      <c r="J164" t="n">
+        <v>18</v>
+      </c>
+      <c r="K164" t="b">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>16</v>
+      </c>
+      <c r="M164" t="n">
+        <v>-1.955543624329654</v>
+      </c>
+      <c r="N164" t="n">
+        <v>3.760702353104964</v>
+      </c>
+      <c r="O164" t="n">
+        <v>-11.60940799589492</v>
+      </c>
+      <c r="P164" t="n">
+        <v>-15.37011034899988</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1563</v>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="n">
+        <v>18.1398983001709</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-3.41801104480917</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>16.54610438422407</v>
+      </c>
+      <c r="H165" t="n">
+        <v>31</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-6.454088551877899</v>
+      </c>
+      <c r="J165" t="n">
+        <v>48</v>
+      </c>
+      <c r="K165" t="b">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>11</v>
+      </c>
+      <c r="M165" t="n">
+        <v>-1.237996069830381</v>
+      </c>
+      <c r="N165" t="n">
+        <v>19.96411542903324</v>
+      </c>
+      <c r="O165" t="n">
+        <v>2.180014974978789</v>
+      </c>
+      <c r="P165" t="n">
+        <v>-17.78410045405445</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1589</v>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="n">
+        <v>20.53842163085937</v>
+      </c>
+      <c r="E166" t="n">
+        <v>8.800360102406678</v>
+      </c>
+      <c r="F166" t="b">
+        <v>1</v>
+      </c>
+      <c r="G166" t="n">
+        <v>10.415446529729</v>
+      </c>
+      <c r="H166" t="n">
+        <v>49</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-17.37859166762441</v>
+      </c>
+      <c r="J166" t="n">
+        <v>22</v>
+      </c>
+      <c r="K166" t="b">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>9</v>
+      </c>
+      <c r="M166" t="n">
+        <v>-4.231779055962604</v>
+      </c>
+      <c r="N166" t="n">
+        <v>1.61508642732232</v>
+      </c>
+      <c r="O166" t="n">
+        <v>-13.03213915836928</v>
+      </c>
+      <c r="P166" t="n">
+        <v>-14.6472255856916</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1624</v>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="n">
+        <v>19.83783340454102</v>
+      </c>
+      <c r="E167" t="n">
+        <v>20.40522509075798</v>
+      </c>
+      <c r="F167" t="b">
+        <v>1</v>
+      </c>
+      <c r="G167" t="n">
+        <v>33.1056637187872</v>
+      </c>
+      <c r="H167" t="n">
+        <v>48</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-3.099511479173719</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="b">
+        <v>0</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
+        <v>12.70043862802921</v>
+      </c>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1658</v>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="n">
+        <v>24.00105667114257</v>
+      </c>
+      <c r="E168" t="n">
+        <v>26.57426022369355</v>
+      </c>
+      <c r="F168" t="b">
+        <v>1</v>
+      </c>
+      <c r="G168" t="n">
+        <v>31.87654360665265</v>
+      </c>
+      <c r="H168" t="n">
+        <v>41</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-30.3830663988389</v>
+      </c>
+      <c r="J168" t="n">
+        <v>20</v>
+      </c>
+      <c r="K168" t="b">
+        <v>0</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
+        <v>5.302283382959093</v>
+      </c>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1692</v>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="n">
+        <v>25.99609565734864</v>
+      </c>
+      <c r="E169" t="n">
+        <v>25.34585974582522</v>
+      </c>
+      <c r="F169" t="b">
+        <v>1</v>
+      </c>
+      <c r="G169" t="n">
+        <v>27.42067699537477</v>
+      </c>
+      <c r="H169" t="n">
+        <v>52</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-4.35757367157229</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>35</v>
+      </c>
+      <c r="M169" t="n">
+        <v>1.951811523304573</v>
+      </c>
+      <c r="N169" t="n">
+        <v>2.074817249549554</v>
+      </c>
+      <c r="O169" t="n">
+        <v>-23.39404822252064</v>
+      </c>
+      <c r="P169" t="n">
+        <v>-25.4688654720702</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1742</v>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="n">
+        <v>32.37099456787109</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-11.75691402947632</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>25.7617614797</v>
+      </c>
+      <c r="H170" t="n">
+        <v>28</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-13.96235405620568</v>
+      </c>
+      <c r="J170" t="n">
+        <v>38</v>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="n">
+        <v>21</v>
+      </c>
+      <c r="M170" t="n">
+        <v>3.154093243562079</v>
+      </c>
+      <c r="N170" t="n">
+        <v>37.51867550917632</v>
+      </c>
+      <c r="O170" t="n">
+        <v>14.9110072730384</v>
+      </c>
+      <c r="P170" t="n">
+        <v>-22.60766823613792</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1752</v>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="n">
+        <v>36.57468032836914</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-14.48260519347802</v>
+      </c>
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>11.30741980942408</v>
+      </c>
+      <c r="H171" t="n">
+        <v>18</v>
+      </c>
+      <c r="I171" t="n">
+        <v>-23.85103179374335</v>
+      </c>
+      <c r="J171" t="n">
+        <v>28</v>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>11</v>
+      </c>
+      <c r="M171" t="n">
+        <v>-8.701851607135817</v>
+      </c>
+      <c r="N171" t="n">
+        <v>25.7900250029021</v>
+      </c>
+      <c r="O171" t="n">
+        <v>5.780753586342199</v>
+      </c>
+      <c r="P171" t="n">
+        <v>-20.0092714165599</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1879</v>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="n">
+        <v>29.35924530029297</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-6.837396947903876</v>
+      </c>
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>2.389180799239052</v>
+      </c>
+      <c r="H172" t="n">
+        <v>2</v>
+      </c>
+      <c r="I172" t="n">
+        <v>-24.7889290354437</v>
+      </c>
+      <c r="J172" t="n">
+        <v>16</v>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>11</v>
+      </c>
+      <c r="M172" t="n">
+        <v>-16.2088652413157</v>
+      </c>
+      <c r="N172" t="n">
+        <v>9.22657774714293</v>
+      </c>
+      <c r="O172" t="n">
+        <v>-9.371468293411823</v>
+      </c>
+      <c r="P172" t="n">
+        <v>-18.59804604055475</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1916</v>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="n">
+        <v>25.93395042419434</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-16.44157669061656</v>
+      </c>
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>9.757168860954751</v>
+      </c>
+      <c r="H173" t="n">
+        <v>44</v>
+      </c>
+      <c r="I173" t="n">
+        <v>-20.95303775673485</v>
+      </c>
+      <c r="J173" t="n">
+        <v>52</v>
+      </c>
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>20</v>
+      </c>
+      <c r="M173" t="n">
+        <v>-0.8496594691465138</v>
+      </c>
+      <c r="N173" t="n">
+        <v>26.19874555157131</v>
+      </c>
+      <c r="O173" t="n">
+        <v>15.59191722147005</v>
+      </c>
+      <c r="P173" t="n">
+        <v>-10.60682833010127</v>
       </c>
     </row>
   </sheetData>
@@ -6911,7 +8831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7124,40 +9044,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>40</v>
+      </c>
+      <c r="C4" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.02995961310444</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.227112236985972</v>
+      </c>
+      <c r="F4" t="n">
+        <v>92.77179022352327</v>
+      </c>
+      <c r="G4" t="n">
+        <v>39.4362653708699</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-14.88676692872951</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14.40630575776546</v>
+      </c>
+      <c r="J4" t="n">
+        <v>75</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19.06666666666667</v>
+      </c>
+      <c r="L4" t="n">
+        <v>46.66666666666666</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-3.033344445664092</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>random_baseline</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>500</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>72</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>37.72689401250096</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>16.24498423510398</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>112.3909766166349</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>55.25945057594371</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>-14.70418355499305</v>
       </c>
     </row>

--- a/results/SHL.xlsx
+++ b/results/SHL.xlsx
@@ -6949,26 +6949,26 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
-        <v>0.0350663512945175</v>
+        <v>0.0207210145890712</v>
       </c>
       <c r="E135" t="n">
-        <v>572.7273152214607</v>
+        <v>23.07704339337198</v>
       </c>
       <c r="F135" t="b">
         <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>572.7273152214607</v>
+        <v>84.61552014425855</v>
       </c>
       <c r="H135" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>-30.76922547887741</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
@@ -6979,7 +6979,7 @@
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="n">
-        <v>0</v>
+        <v>61.53847675088657</v>
       </c>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr"/>
@@ -9054,22 +9054,22 @@
         <v>62.5</v>
       </c>
       <c r="D4" t="n">
-        <v>25.02995961310444</v>
+        <v>11.28870281740222</v>
       </c>
       <c r="E4" t="n">
         <v>9.227112236985972</v>
       </c>
       <c r="F4" t="n">
-        <v>92.77179022352327</v>
+        <v>26.85962196794551</v>
       </c>
       <c r="G4" t="n">
-        <v>39.4362653708699</v>
+        <v>27.23347049393985</v>
       </c>
       <c r="H4" t="n">
-        <v>-14.88676692872951</v>
+        <v>-15.65599756570144</v>
       </c>
       <c r="I4" t="n">
-        <v>14.40630575776546</v>
+        <v>15.94476767653763</v>
       </c>
       <c r="J4" t="n">
         <v>75</v>
